--- a/forecast_summary_B09JZFT4SN.xlsx
+++ b/forecast_summary_B09JZFT4SN.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,19 +476,24 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
         <v>-2.430348773974989</v>
       </c>
       <c r="D2" t="n">
-        <v>43.60940309912482</v>
+        <v>44.21580307221551</v>
       </c>
       <c r="E2" t="n">
         <v>6</v>
@@ -511,6 +516,9 @@
         <is>
           <t>Z690 AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>-1.655250578033062</v>
       </c>
       <c r="D3" t="n">
-        <v>43.24527847756409</v>
+        <v>43.5838716822247</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -547,6 +555,9 @@
         <is>
           <t>Z690 AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>-0.5718831446402211</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13717928759873</v>
+        <v>45.20230815748938</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -583,6 +594,9 @@
         <is>
           <t>Z690 AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +604,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
         <v>-0.4737008882087652</v>
       </c>
       <c r="D5" t="n">
-        <v>47.14912626368693</v>
+        <v>42.99733078578937</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -619,6 +633,9 @@
         <is>
           <t>Z690 AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,13 +643,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="n">
         <v>-2.936961873318766</v>
       </c>
       <c r="D6" t="n">
-        <v>43.84739173809589</v>
+        <v>47.47820853800546</v>
       </c>
       <c r="E6" t="n">
         <v>6</v>
@@ -655,6 +672,9 @@
         <is>
           <t>Z690 AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -662,13 +682,13 @@
         <v>45662</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>-7.395209722336901</v>
       </c>
       <c r="D7" t="n">
-        <v>40.12697876620658</v>
+        <v>37.91135868573478</v>
       </c>
       <c r="E7" t="n">
         <v>6</v>
@@ -691,6 +711,9 @@
         <is>
           <t>Z690 AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -698,13 +721,13 @@
         <v>45669</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>-10.32838136804455</v>
       </c>
       <c r="D8" t="n">
-        <v>33.5024491066622</v>
+        <v>37.07406508211137</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -727,6 +750,9 @@
         <is>
           <t>Z690 AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,13 +760,13 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>-8.349166393114382</v>
       </c>
       <c r="D9" t="n">
-        <v>36.03510088189264</v>
+        <v>38.01041354800692</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -763,6 +789,9 @@
         <is>
           <t>Z690 AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>-2.497973491303673</v>
       </c>
       <c r="D10" t="n">
-        <v>41.19895124311099</v>
+        <v>43.1517795389798</v>
       </c>
       <c r="E10" t="n">
         <v>6</v>
@@ -799,6 +828,9 @@
         <is>
           <t>Z690 AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -806,13 +838,13 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="n">
         <v>1.692548048030786</v>
       </c>
       <c r="D11" t="n">
-        <v>45.88386229887647</v>
+        <v>49.76959579732403</v>
       </c>
       <c r="E11" t="n">
         <v>6</v>
@@ -835,6 +867,9 @@
         <is>
           <t>Z690 AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -842,13 +877,13 @@
         <v>45697</v>
       </c>
       <c r="B12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="n">
         <v>-0.3513611759256635</v>
       </c>
       <c r="D12" t="n">
-        <v>50.02833627661681</v>
+        <v>47.68579878507023</v>
       </c>
       <c r="E12" t="n">
         <v>6</v>
@@ -871,6 +906,9 @@
         <is>
           <t>Z690 AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -878,13 +916,13 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
         <v>-6.928697736282492</v>
       </c>
       <c r="D13" t="n">
-        <v>38.2294679652579</v>
+        <v>35.50222521461668</v>
       </c>
       <c r="E13" t="n">
         <v>6</v>
@@ -907,6 +945,9 @@
         <is>
           <t>Z690 AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>-11.39825388071174</v>
       </c>
       <c r="D14" t="n">
-        <v>34.00475260447963</v>
+        <v>34.60526002789416</v>
       </c>
       <c r="E14" t="n">
         <v>6</v>
@@ -943,6 +984,9 @@
         <is>
           <t>Z690 AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>-9.304636090814761</v>
       </c>
       <c r="D15" t="n">
-        <v>33.64808850159302</v>
+        <v>35.14354725980246</v>
       </c>
       <c r="E15" t="n">
         <v>6</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>Z690 AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>-3.272141806052894</v>
       </c>
       <c r="D16" t="n">
-        <v>41.86278293479071</v>
+        <v>41.98653325925605</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>Z690 AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1022,13 +1072,13 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" t="n">
         <v>0.1622076921000058</v>
       </c>
       <c r="D17" t="n">
-        <v>46.6109756052554</v>
+        <v>42.92597866781283</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>Z690 AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1058,13 +1111,13 @@
         <v>45739</v>
       </c>
       <c r="B18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" t="n">
         <v>-1.888783965440041</v>
       </c>
       <c r="D18" t="n">
-        <v>45.79119011511024</v>
+        <v>41.70192981071904</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>Z690 AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>-5.674605727395576</v>
       </c>
       <c r="D19" t="n">
-        <v>39.72072831927768</v>
+        <v>38.83098512023687</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>Z690 AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1130,13 +1189,13 @@
         <v>45753</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
         <v>-5.759429454410523</v>
       </c>
       <c r="D20" t="n">
-        <v>40.03853922949664</v>
+        <v>37.53132399258845</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>Z690 AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1166,13 +1228,13 @@
         <v>45760</v>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C21" t="n">
         <v>-1.602208872914785</v>
       </c>
       <c r="D21" t="n">
-        <v>45.61946377739881</v>
+        <v>41.74079013222534</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>Z690 AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>78</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1421,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
     </row>
